--- a/cache/salaries/2019.xlsx
+++ b/cache/salaries/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23256" windowHeight="12528"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23250" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -676,1280 +676,1283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N37"/>
+  <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1991</v>
       </c>
+      <c r="B6" s="6">
+        <v>266</v>
+      </c>
       <c r="C6" s="6">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D6" s="6">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="E6" s="6">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="F6" s="6">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="G6" s="6">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="H6" s="6">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="I6" s="6">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="J6" s="6">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="K6" s="6">
-        <v>542</v>
+        <v>640</v>
       </c>
       <c r="L6" s="6">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="M6" s="6">
-        <v>711</v>
-      </c>
-      <c r="N6" s="6">
         <v>1109</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1992</v>
       </c>
+      <c r="B7" s="6">
+        <v>1256</v>
+      </c>
       <c r="C7" s="6">
-        <v>1256</v>
+        <v>1507</v>
       </c>
       <c r="D7" s="6">
-        <v>1507</v>
+        <v>2117</v>
       </c>
       <c r="E7" s="6">
-        <v>2117</v>
+        <v>2445</v>
       </c>
       <c r="F7" s="6">
-        <v>2445</v>
+        <v>3318</v>
       </c>
       <c r="G7" s="6">
-        <v>3318</v>
+        <v>4070</v>
       </c>
       <c r="H7" s="6">
-        <v>4070</v>
+        <v>4171</v>
       </c>
       <c r="I7" s="6">
-        <v>4171</v>
+        <v>4509</v>
       </c>
       <c r="J7" s="6">
-        <v>4509</v>
+        <v>5492</v>
       </c>
       <c r="K7" s="6">
-        <v>5492</v>
+        <v>6563</v>
       </c>
       <c r="L7" s="6">
-        <v>6563</v>
+        <v>8455</v>
       </c>
       <c r="M7" s="6">
-        <v>8455</v>
-      </c>
-      <c r="N7" s="6">
         <v>12372</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1993</v>
       </c>
+      <c r="B8" s="6">
+        <v>12939</v>
+      </c>
       <c r="C8" s="6">
-        <v>12939</v>
+        <v>16252</v>
       </c>
       <c r="D8" s="6">
-        <v>16252</v>
+        <v>18898</v>
       </c>
       <c r="E8" s="6">
-        <v>18898</v>
+        <v>23600</v>
       </c>
       <c r="F8" s="6">
-        <v>23600</v>
+        <v>26623</v>
       </c>
       <c r="G8" s="6">
-        <v>26623</v>
+        <v>37314</v>
       </c>
       <c r="H8" s="6">
-        <v>37314</v>
+        <v>41869</v>
       </c>
       <c r="I8" s="6">
-        <v>41869</v>
+        <v>56363</v>
       </c>
       <c r="J8" s="6">
-        <v>56363</v>
+        <v>64305</v>
       </c>
       <c r="K8" s="6">
-        <v>64305</v>
+        <v>94959</v>
       </c>
       <c r="L8" s="6">
-        <v>94959</v>
+        <v>121822</v>
       </c>
       <c r="M8" s="6">
-        <v>121822</v>
-      </c>
-      <c r="N8" s="6">
         <v>162480</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="6">
+        <v>188469</v>
+      </c>
       <c r="C9" s="6">
-        <v>188469</v>
+        <v>204379</v>
       </c>
       <c r="D9" s="6">
-        <v>204379</v>
+        <v>238525</v>
       </c>
       <c r="E9" s="6">
-        <v>238525</v>
+        <v>396959</v>
       </c>
       <c r="F9" s="6">
-        <v>396959</v>
+        <v>437853</v>
       </c>
       <c r="G9" s="6">
-        <v>437853</v>
+        <v>531621</v>
       </c>
       <c r="H9" s="6">
-        <v>531621</v>
+        <v>815459</v>
       </c>
       <c r="I9" s="6">
-        <v>815459</v>
+        <v>89723</v>
       </c>
       <c r="J9" s="6">
-        <v>89723</v>
+        <v>105281</v>
       </c>
       <c r="K9" s="6">
-        <v>105281</v>
+        <v>128893</v>
       </c>
       <c r="L9" s="6">
-        <v>128893</v>
+        <v>197578</v>
       </c>
       <c r="M9" s="6">
-        <v>197578</v>
-      </c>
-      <c r="N9" s="6">
         <v>248922</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1995</v>
       </c>
+      <c r="B10" s="6">
+        <v>339666</v>
+      </c>
       <c r="C10" s="6">
-        <v>339666</v>
+        <v>387739</v>
       </c>
       <c r="D10" s="6">
-        <v>387739</v>
+        <v>653853</v>
       </c>
       <c r="E10" s="6">
-        <v>653853</v>
+        <v>692137</v>
       </c>
       <c r="F10" s="6">
-        <v>692137</v>
+        <v>732374</v>
       </c>
       <c r="G10" s="6">
-        <v>732374</v>
+        <v>813069</v>
       </c>
       <c r="H10" s="6">
-        <v>813069</v>
+        <v>830818</v>
       </c>
       <c r="I10" s="6">
-        <v>830818</v>
+        <v>875440</v>
       </c>
       <c r="J10" s="6">
-        <v>875440</v>
+        <v>880403</v>
       </c>
       <c r="K10" s="6">
-        <v>880403</v>
+        <v>903916</v>
       </c>
       <c r="L10" s="6">
-        <v>903916</v>
+        <v>876825</v>
       </c>
       <c r="M10" s="6">
-        <v>876825</v>
-      </c>
-      <c r="N10" s="6">
         <v>1013731</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>1996</v>
       </c>
+      <c r="B11" s="6">
+        <v>950903</v>
+      </c>
       <c r="C11" s="6">
-        <v>950903</v>
+        <v>1015329</v>
       </c>
       <c r="D11" s="6">
-        <v>1015329</v>
+        <v>1066554</v>
       </c>
       <c r="E11" s="6">
-        <v>1066554</v>
+        <v>1062414</v>
       </c>
       <c r="F11" s="6">
-        <v>1062414</v>
+        <v>1131545</v>
       </c>
       <c r="G11" s="6">
-        <v>1131545</v>
+        <v>1187134</v>
       </c>
       <c r="H11" s="6">
-        <v>1187134</v>
+        <v>1235785</v>
       </c>
       <c r="I11" s="6">
-        <v>1235785</v>
+        <v>1260887</v>
       </c>
       <c r="J11" s="6">
-        <v>1260887</v>
+        <v>1288537</v>
       </c>
       <c r="K11" s="6">
-        <v>1288537</v>
+        <v>1356200</v>
       </c>
       <c r="L11" s="6">
-        <v>1356200</v>
+        <v>1298258</v>
       </c>
       <c r="M11" s="6">
-        <v>1298258</v>
-      </c>
-      <c r="N11" s="6">
         <v>1592893</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>1997</v>
       </c>
+      <c r="B12" s="6">
+        <v>1526205</v>
+      </c>
       <c r="C12" s="6">
-        <v>1526205</v>
+        <v>1639575</v>
       </c>
       <c r="D12" s="6">
-        <v>1639575</v>
+        <v>1732454</v>
       </c>
       <c r="E12" s="6">
-        <v>1732454</v>
+        <v>1898682</v>
       </c>
       <c r="F12" s="6">
-        <v>1898682</v>
+        <v>2003435</v>
       </c>
       <c r="G12" s="6">
-        <v>2003435</v>
+        <v>2187892</v>
       </c>
       <c r="H12" s="6">
-        <v>2187892</v>
+        <v>2299311</v>
       </c>
       <c r="I12" s="6">
-        <v>2299311</v>
+        <v>2361090</v>
       </c>
       <c r="J12" s="6">
-        <v>2361090</v>
+        <v>2664133</v>
       </c>
       <c r="K12" s="6">
-        <v>2664133</v>
+        <v>2748347</v>
       </c>
       <c r="L12" s="6">
-        <v>2748347</v>
+        <v>2743509</v>
       </c>
       <c r="M12" s="6">
-        <v>2743509</v>
-      </c>
-      <c r="N12" s="6">
         <v>3275952</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>1998</v>
       </c>
+      <c r="B13" s="6">
+        <v>3024216</v>
+      </c>
       <c r="C13" s="6">
-        <v>3024216</v>
+        <v>3389950</v>
       </c>
       <c r="D13" s="6">
-        <v>3389950</v>
+        <v>3698217</v>
       </c>
       <c r="E13" s="6">
-        <v>3698217</v>
+        <v>3669287</v>
       </c>
       <c r="F13" s="6">
-        <v>3669287</v>
+        <v>3854940</v>
       </c>
       <c r="G13" s="6">
-        <v>3854940</v>
+        <v>4176790</v>
       </c>
       <c r="H13" s="6">
-        <v>4176790</v>
+        <v>4348177</v>
       </c>
       <c r="I13" s="6">
-        <v>4348177</v>
+        <v>4448960</v>
       </c>
       <c r="J13" s="6">
-        <v>4448960</v>
+        <v>4663585</v>
       </c>
       <c r="K13" s="6">
-        <v>4663585</v>
+        <v>5731120</v>
       </c>
       <c r="L13" s="6">
-        <v>5731120</v>
+        <v>6368954</v>
       </c>
       <c r="M13" s="6">
-        <v>6368954</v>
-      </c>
-      <c r="N13" s="6">
         <v>8008174</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1999</v>
       </c>
+      <c r="B14" s="6">
+        <v>8978500</v>
+      </c>
       <c r="C14" s="6">
-        <v>8978500</v>
+        <v>9953934</v>
       </c>
       <c r="D14" s="6">
-        <v>9953934</v>
+        <v>11682205</v>
       </c>
       <c r="E14" s="6">
-        <v>11682205</v>
+        <v>12849557</v>
       </c>
       <c r="F14" s="6">
-        <v>12849557</v>
+        <v>17580575</v>
       </c>
       <c r="G14" s="6">
-        <v>17580575</v>
+        <v>19061799</v>
       </c>
       <c r="H14" s="6">
-        <v>19061799</v>
+        <v>20456155</v>
       </c>
       <c r="I14" s="6">
-        <v>20456155</v>
+        <v>21467326</v>
       </c>
       <c r="J14" s="6">
-        <v>21467326</v>
+        <v>22994026</v>
       </c>
       <c r="K14" s="6">
-        <v>22994026</v>
+        <v>27228159</v>
       </c>
       <c r="L14" s="6">
-        <v>27228159</v>
+        <v>29003748</v>
       </c>
       <c r="M14" s="6">
-        <v>29003748</v>
-      </c>
-      <c r="N14" s="6">
         <v>34871899</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="6">
+        <v>36659</v>
+      </c>
       <c r="C15" s="6">
-        <v>36659</v>
+        <v>41182</v>
       </c>
       <c r="D15" s="6">
-        <v>41182</v>
+        <v>45549</v>
       </c>
       <c r="E15" s="6">
-        <v>45549</v>
+        <v>47160</v>
       </c>
       <c r="F15" s="6">
-        <v>47160</v>
+        <v>53832</v>
       </c>
       <c r="G15" s="6">
-        <v>53832</v>
+        <v>57596</v>
       </c>
       <c r="H15" s="6">
-        <v>57596</v>
+        <v>59613</v>
       </c>
       <c r="I15" s="6">
-        <v>59613</v>
+        <v>63821</v>
       </c>
       <c r="J15" s="6">
-        <v>63821</v>
+        <v>65977</v>
       </c>
       <c r="K15" s="6">
-        <v>65977</v>
+        <v>76337</v>
       </c>
       <c r="L15" s="6">
-        <v>76337</v>
+        <v>77369</v>
       </c>
       <c r="M15" s="6">
-        <v>77369</v>
-      </c>
-      <c r="N15" s="6">
         <v>87669</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>2001</v>
       </c>
+      <c r="B16" s="6">
+        <v>84561</v>
+      </c>
       <c r="C16" s="6">
-        <v>84561</v>
+        <v>86769</v>
       </c>
       <c r="D16" s="6">
-        <v>86769</v>
+        <v>101923</v>
       </c>
       <c r="E16" s="6">
-        <v>101923</v>
+        <v>105774</v>
       </c>
       <c r="F16" s="6">
-        <v>105774</v>
+        <v>115433</v>
       </c>
       <c r="G16" s="6">
-        <v>115433</v>
+        <v>124552</v>
       </c>
       <c r="H16" s="6">
-        <v>124552</v>
+        <v>138685</v>
       </c>
       <c r="I16" s="6">
-        <v>138685</v>
+        <v>145852</v>
       </c>
       <c r="J16" s="6">
-        <v>145852</v>
+        <v>141295</v>
       </c>
       <c r="K16" s="6">
-        <v>141295</v>
+        <v>144793</v>
       </c>
       <c r="L16" s="6">
-        <v>144793</v>
+        <v>143377</v>
       </c>
       <c r="M16" s="6">
-        <v>143377</v>
-      </c>
-      <c r="N16" s="6">
         <v>166246</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>2002</v>
       </c>
+      <c r="B17" s="6">
+        <v>158903</v>
+      </c>
       <c r="C17" s="6">
-        <v>158903</v>
+        <v>161003</v>
       </c>
       <c r="D17" s="6">
-        <v>161003</v>
+        <v>171126</v>
       </c>
       <c r="E17" s="6">
-        <v>171126</v>
+        <v>178853</v>
       </c>
       <c r="F17" s="6">
-        <v>178853</v>
+        <v>183735</v>
       </c>
       <c r="G17" s="6">
-        <v>183735</v>
+        <v>194877</v>
       </c>
       <c r="H17" s="6">
-        <v>194877</v>
+        <v>205164</v>
       </c>
       <c r="I17" s="6">
-        <v>205164</v>
+        <v>205914</v>
       </c>
       <c r="J17" s="6">
-        <v>205914</v>
+        <v>208207</v>
       </c>
       <c r="K17" s="6">
-        <v>208207</v>
+        <v>209595</v>
       </c>
       <c r="L17" s="6">
-        <v>209595</v>
+        <v>203547</v>
       </c>
       <c r="M17" s="6">
-        <v>203547</v>
-      </c>
-      <c r="N17" s="6">
         <v>220926</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2003</v>
       </c>
+      <c r="B18" s="6">
+        <v>211067</v>
+      </c>
       <c r="C18" s="6">
-        <v>211067</v>
+        <v>215261</v>
       </c>
       <c r="D18" s="6">
-        <v>215261</v>
+        <v>227497</v>
       </c>
       <c r="E18" s="6">
-        <v>227497</v>
+        <v>233650</v>
       </c>
       <c r="F18" s="6">
-        <v>233650</v>
+        <v>241919</v>
       </c>
       <c r="G18" s="6">
-        <v>241919</v>
+        <v>256593</v>
       </c>
       <c r="H18" s="6">
-        <v>256593</v>
+        <v>262601</v>
       </c>
       <c r="I18" s="6">
-        <v>262601</v>
+        <v>266258</v>
       </c>
       <c r="J18" s="6">
-        <v>266258</v>
+        <v>272056</v>
       </c>
       <c r="K18" s="6">
-        <v>272056</v>
+        <v>281066</v>
       </c>
       <c r="L18" s="6">
-        <v>281066</v>
+        <v>274871</v>
       </c>
       <c r="M18" s="6">
-        <v>274871</v>
-      </c>
-      <c r="N18" s="6">
         <v>299859</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>2004</v>
       </c>
+      <c r="B19" s="6">
+        <v>285970</v>
+      </c>
       <c r="C19" s="6">
-        <v>285970</v>
+        <v>288988</v>
       </c>
       <c r="D19" s="6">
-        <v>288988</v>
+        <v>308663</v>
       </c>
       <c r="E19" s="6">
-        <v>308663</v>
+        <v>320515</v>
       </c>
       <c r="F19" s="6">
-        <v>320515</v>
+        <v>336360</v>
       </c>
       <c r="G19" s="6">
-        <v>336360</v>
+        <v>355230</v>
       </c>
       <c r="H19" s="6">
-        <v>355230</v>
+        <v>367141</v>
       </c>
       <c r="I19" s="6">
-        <v>367141</v>
+        <v>372026</v>
       </c>
       <c r="J19" s="6">
-        <v>372026</v>
+        <v>367881</v>
       </c>
       <c r="K19" s="6">
-        <v>367881</v>
+        <v>370408</v>
       </c>
       <c r="L19" s="6">
-        <v>370408</v>
+        <v>392727</v>
       </c>
       <c r="M19" s="6">
-        <v>392727</v>
-      </c>
-      <c r="N19" s="6">
         <v>434900</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>2005</v>
       </c>
+      <c r="B20" s="7">
+        <v>398172</v>
+      </c>
       <c r="C20" s="7">
-        <v>398172</v>
+        <v>400427</v>
       </c>
       <c r="D20" s="7">
-        <v>400427</v>
+        <v>427583</v>
       </c>
       <c r="E20" s="7">
-        <v>427583</v>
+        <v>440553</v>
       </c>
       <c r="F20" s="7">
-        <v>440553</v>
+        <v>449933</v>
       </c>
       <c r="G20" s="7">
-        <v>449933</v>
+        <v>476355</v>
       </c>
       <c r="H20" s="7">
-        <v>476355</v>
+        <v>487949</v>
       </c>
       <c r="I20" s="7">
-        <v>487949</v>
+        <v>497443</v>
       </c>
       <c r="J20" s="7">
-        <v>497443</v>
+        <v>485230</v>
       </c>
       <c r="K20" s="7">
-        <v>485230</v>
+        <v>501517</v>
       </c>
       <c r="L20" s="7">
-        <v>501517</v>
+        <v>502990</v>
       </c>
       <c r="M20" s="7">
-        <v>502990</v>
-      </c>
-      <c r="N20" s="7">
         <v>562189</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>2006</v>
       </c>
+      <c r="B21" s="7">
+        <v>518979</v>
+      </c>
       <c r="C21" s="7">
-        <v>518979</v>
+        <v>525380</v>
       </c>
       <c r="D21" s="7">
-        <v>525380</v>
+        <v>558513</v>
       </c>
       <c r="E21" s="7">
-        <v>558513</v>
+        <v>561612</v>
       </c>
       <c r="F21" s="7">
-        <v>561612</v>
+        <v>579312</v>
       </c>
       <c r="G21" s="7">
-        <v>579312</v>
+        <v>603956</v>
       </c>
       <c r="H21" s="7">
-        <v>603956</v>
+        <v>612279</v>
       </c>
       <c r="I21" s="7">
-        <v>612279</v>
+        <v>623542</v>
       </c>
       <c r="J21" s="7">
-        <v>623542</v>
+        <v>606385</v>
       </c>
       <c r="K21" s="7">
-        <v>606385</v>
+        <v>618425</v>
       </c>
       <c r="L21" s="7">
-        <v>618425</v>
+        <v>611482</v>
       </c>
       <c r="M21" s="7">
-        <v>611482</v>
-      </c>
-      <c r="N21" s="7">
         <v>668049</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>2007</v>
       </c>
+      <c r="B22" s="8">
+        <v>617244</v>
+      </c>
       <c r="C22" s="8">
-        <v>617244</v>
+        <v>614327</v>
       </c>
       <c r="D22" s="8">
-        <v>614327</v>
+        <v>659447</v>
       </c>
       <c r="E22" s="8">
-        <v>659447</v>
+        <v>661850</v>
       </c>
       <c r="F22" s="8">
-        <v>661850</v>
-      </c>
-      <c r="G22" s="8">
         <v>686852</v>
       </c>
+      <c r="G22" s="7">
+        <v>710232</v>
+      </c>
       <c r="H22" s="7">
-        <v>710232</v>
+        <v>731975</v>
       </c>
       <c r="I22" s="7">
-        <v>731975</v>
+        <v>737342</v>
       </c>
       <c r="J22" s="7">
-        <v>737342</v>
+        <v>713362</v>
       </c>
       <c r="K22" s="7">
-        <v>713362</v>
+        <v>738019</v>
       </c>
       <c r="L22" s="7">
-        <v>738019</v>
+        <v>736386</v>
       </c>
       <c r="M22" s="7">
-        <v>736386</v>
-      </c>
-      <c r="N22" s="7">
         <v>795386</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>2008</v>
       </c>
+      <c r="B23" s="8">
+        <v>756332</v>
+      </c>
       <c r="C23" s="8">
-        <v>756332</v>
+        <v>761605</v>
       </c>
       <c r="D23" s="8">
-        <v>761605</v>
+        <v>807846</v>
       </c>
       <c r="E23" s="8">
-        <v>807846</v>
+        <v>836980</v>
       </c>
       <c r="F23" s="8">
-        <v>836980</v>
+        <v>847008</v>
       </c>
       <c r="G23" s="8">
-        <v>847008</v>
+        <v>892423</v>
       </c>
       <c r="H23" s="8">
-        <v>892423</v>
+        <v>923277</v>
       </c>
       <c r="I23" s="8">
-        <v>923277</v>
+        <v>938342</v>
       </c>
       <c r="J23" s="8">
-        <v>938342</v>
+        <v>942941</v>
       </c>
       <c r="K23" s="8">
-        <v>942941</v>
+        <v>958358</v>
       </c>
       <c r="L23" s="8">
-        <v>958358</v>
+        <v>954891</v>
       </c>
       <c r="M23" s="8">
-        <v>954891</v>
-      </c>
-      <c r="N23" s="8">
         <v>1000187</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>2009</v>
       </c>
+      <c r="B24" s="8">
+        <v>919637</v>
+      </c>
       <c r="C24" s="8">
-        <v>919637</v>
+        <v>906177</v>
       </c>
       <c r="D24" s="8">
-        <v>906177</v>
+        <v>957130</v>
       </c>
       <c r="E24" s="8">
-        <v>957130</v>
+        <v>965657</v>
       </c>
       <c r="F24" s="8">
-        <v>965657</v>
+        <v>979134</v>
       </c>
       <c r="G24" s="8">
-        <v>979134</v>
+        <v>1014762</v>
       </c>
       <c r="H24" s="8">
-        <v>1014762</v>
+        <v>1035164</v>
       </c>
       <c r="I24" s="8">
-        <v>1035164</v>
+        <v>1043494</v>
       </c>
       <c r="J24" s="8">
-        <v>1043494</v>
+        <v>1022953</v>
       </c>
       <c r="K24" s="8">
-        <v>1022953</v>
+        <v>1026187</v>
       </c>
       <c r="L24" s="8">
-        <v>1026187</v>
+        <v>1012903</v>
       </c>
       <c r="M24" s="8">
-        <v>1012903</v>
-      </c>
-      <c r="N24" s="8">
         <v>1093017</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>2010</v>
       </c>
+      <c r="B25" s="6">
+        <v>999963</v>
+      </c>
       <c r="C25" s="6">
-        <v>999963</v>
+        <v>1016393</v>
       </c>
       <c r="D25" s="6">
-        <v>1016393</v>
+        <v>1095257</v>
       </c>
       <c r="E25" s="6">
-        <v>1095257</v>
+        <v>1116820</v>
       </c>
       <c r="F25" s="6">
-        <v>1116820</v>
+        <v>1158373</v>
       </c>
       <c r="G25" s="6">
-        <v>1158373</v>
+        <v>1234941</v>
       </c>
       <c r="H25" s="6">
-        <v>1234941</v>
-      </c>
-      <c r="I25" s="6">
         <v>1282757</v>
       </c>
+      <c r="I25" s="8">
+        <v>1286851</v>
+      </c>
       <c r="J25" s="8">
-        <v>1286851</v>
-      </c>
-      <c r="K25" s="8">
         <v>1305148</v>
       </c>
+      <c r="K25" s="6">
+        <v>1328196</v>
+      </c>
       <c r="L25" s="6">
-        <v>1328196</v>
+        <v>1428337</v>
       </c>
       <c r="M25" s="6">
-        <v>1428337</v>
-      </c>
-      <c r="N25" s="6">
         <v>1595873</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>2011</v>
       </c>
+      <c r="B26" s="6">
+        <v>1409625</v>
+      </c>
       <c r="C26" s="6">
-        <v>1409625</v>
+        <v>1439301</v>
       </c>
       <c r="D26" s="6">
-        <v>1439301</v>
+        <v>1537210</v>
       </c>
       <c r="E26" s="6">
-        <v>1537210</v>
+        <v>1563393</v>
       </c>
       <c r="F26" s="6">
-        <v>1563393</v>
+        <v>1648669</v>
       </c>
       <c r="G26" s="6">
-        <v>1648669</v>
+        <v>1782857</v>
       </c>
       <c r="H26" s="6">
-        <v>1782857</v>
+        <v>1854517</v>
       </c>
       <c r="I26" s="6">
-        <v>1854517</v>
+        <v>1992310</v>
       </c>
       <c r="J26" s="6">
-        <v>1992310</v>
+        <v>2260112</v>
       </c>
       <c r="K26" s="6">
-        <v>2260112</v>
+        <v>2318000</v>
       </c>
       <c r="L26" s="6">
-        <v>2318000</v>
+        <v>2439681</v>
       </c>
       <c r="M26" s="6">
-        <v>2439681</v>
-      </c>
-      <c r="N26" s="6">
         <v>2877658</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>2012</v>
       </c>
+      <c r="B27" s="8">
+        <v>2880585</v>
+      </c>
       <c r="C27" s="8">
-        <v>2880585</v>
+        <v>2964249</v>
       </c>
       <c r="D27" s="8">
-        <v>2964249</v>
+        <v>3159624</v>
       </c>
       <c r="E27" s="8">
-        <v>3159624</v>
+        <v>3252689</v>
       </c>
       <c r="F27" s="8">
-        <v>3252689</v>
+        <v>3559648</v>
       </c>
       <c r="G27" s="8">
-        <v>3559648</v>
+        <v>3752118</v>
       </c>
       <c r="H27" s="8">
-        <v>3752118</v>
+        <v>3925900</v>
       </c>
       <c r="I27" s="8">
-        <v>3925900</v>
+        <v>4084895</v>
       </c>
       <c r="J27" s="8">
-        <v>4084895</v>
+        <v>4096741</v>
       </c>
       <c r="K27" s="8">
-        <v>4096741</v>
+        <v>4228447</v>
       </c>
       <c r="L27" s="8">
-        <v>4228447</v>
+        <v>4244270</v>
       </c>
       <c r="M27" s="8">
-        <v>4244270</v>
-      </c>
-      <c r="N27" s="8">
         <v>4741282</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>2013</v>
       </c>
+      <c r="B28" s="8">
+        <v>4368023</v>
+      </c>
       <c r="C28" s="8">
-        <v>4368023</v>
+        <v>4504840</v>
       </c>
       <c r="D28" s="8">
-        <v>4504840</v>
+        <v>4692789</v>
       </c>
       <c r="E28" s="8">
-        <v>4692789</v>
+        <v>4888296</v>
       </c>
       <c r="F28" s="8">
-        <v>4888296</v>
+        <v>4988338</v>
       </c>
       <c r="G28" s="8">
-        <v>4988338</v>
+        <v>5159884</v>
       </c>
       <c r="H28" s="8">
-        <v>5159884</v>
+        <v>5450175</v>
       </c>
       <c r="I28" s="8">
-        <v>5450175</v>
+        <v>5547075</v>
       </c>
       <c r="J28" s="8">
-        <v>5547075</v>
+        <v>5374793</v>
       </c>
       <c r="K28" s="8">
-        <v>5374793</v>
+        <v>5477569</v>
       </c>
       <c r="L28" s="8">
-        <v>5477569</v>
+        <v>5348781</v>
       </c>
       <c r="M28" s="8">
-        <v>5348781</v>
-      </c>
-      <c r="N28" s="8">
         <v>5854664</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="9">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>2014</v>
       </c>
+      <c r="B29" s="10">
+        <v>5322441</v>
+      </c>
       <c r="C29" s="10">
-        <v>5322441</v>
+        <v>5389193</v>
       </c>
       <c r="D29" s="10">
-        <v>5389193</v>
+        <v>5753101</v>
       </c>
       <c r="E29" s="10">
-        <v>5753101</v>
+        <v>5860652</v>
       </c>
       <c r="F29" s="10">
-        <v>5860652</v>
+        <v>6055941</v>
       </c>
       <c r="G29" s="10">
-        <v>6055941</v>
+        <v>6198540</v>
       </c>
       <c r="H29" s="10">
-        <v>6198540</v>
+        <v>6455276</v>
       </c>
       <c r="I29" s="10">
-        <v>6455276</v>
+        <v>6364471</v>
       </c>
       <c r="J29" s="10">
-        <v>6364471</v>
+        <v>6335320</v>
       </c>
       <c r="K29" s="10">
-        <v>6335320</v>
+        <v>6377912</v>
       </c>
       <c r="L29" s="10">
-        <v>6377912</v>
+        <v>6194398</v>
       </c>
       <c r="M29" s="10">
-        <v>6194398</v>
-      </c>
-      <c r="N29" s="10">
         <v>6805978</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="9">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>2015</v>
       </c>
+      <c r="B30" s="10">
+        <v>6023213</v>
+      </c>
       <c r="C30" s="10">
-        <v>6023213</v>
+        <v>6129105</v>
       </c>
       <c r="D30" s="10">
-        <v>6129105</v>
+        <v>6483703</v>
       </c>
       <c r="E30" s="10">
-        <v>6483703</v>
+        <v>6536111</v>
       </c>
       <c r="F30" s="10">
-        <v>6536111</v>
+        <v>6687564</v>
       </c>
       <c r="G30" s="10">
-        <v>6687564</v>
+        <v>6883744</v>
       </c>
       <c r="H30" s="10">
-        <v>6883744</v>
+        <v>7008649</v>
       </c>
       <c r="I30" s="10">
-        <v>7008649</v>
+        <v>6970521</v>
       </c>
       <c r="J30" s="10">
-        <v>6970521</v>
+        <v>6862950</v>
       </c>
       <c r="K30" s="10">
-        <v>6862950</v>
+        <v>6837568</v>
       </c>
       <c r="L30" s="10">
-        <v>6837568</v>
+        <v>6748775</v>
       </c>
       <c r="M30" s="10">
-        <v>6748775</v>
-      </c>
-      <c r="N30" s="10">
         <v>7424092</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B31" s="12">
+        <v>655.20000000000005</v>
+      </c>
       <c r="C31" s="12">
-        <v>655.20000000000005</v>
+        <v>661.6</v>
       </c>
       <c r="D31" s="12">
-        <v>661.6</v>
+        <v>709.5</v>
       </c>
       <c r="E31" s="12">
-        <v>709.5</v>
+        <v>708.6</v>
       </c>
       <c r="F31" s="12">
-        <v>708.6</v>
+        <v>718.3</v>
       </c>
       <c r="G31" s="12">
-        <v>718.3</v>
+        <v>738.7</v>
       </c>
       <c r="H31" s="12">
-        <v>738.7</v>
+        <v>745.8</v>
       </c>
       <c r="I31" s="12">
-        <v>745.8</v>
+        <v>750.3</v>
       </c>
       <c r="J31" s="12">
-        <v>750.3</v>
+        <v>732.9</v>
       </c>
       <c r="K31" s="12">
-        <v>732.9</v>
+        <v>722.9</v>
       </c>
       <c r="L31" s="12">
-        <v>722.9</v>
+        <v>717.6</v>
       </c>
       <c r="M31" s="12">
-        <v>717.6</v>
-      </c>
-      <c r="N31" s="12">
         <v>801.6</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="9">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>2017</v>
       </c>
+      <c r="B32" s="12">
+        <v>720.7</v>
+      </c>
       <c r="C32" s="12">
-        <v>720.7</v>
+        <v>716.5</v>
       </c>
       <c r="D32" s="12">
-        <v>716.5</v>
+        <v>770.6</v>
       </c>
       <c r="E32" s="12">
-        <v>770.6</v>
+        <v>776.7</v>
       </c>
       <c r="F32" s="12">
-        <v>776.7</v>
+        <v>795.2</v>
       </c>
       <c r="G32" s="12">
-        <v>795.2</v>
+        <v>819.3</v>
       </c>
       <c r="H32" s="12">
-        <v>819.3</v>
+        <v>827.5</v>
       </c>
       <c r="I32" s="12">
-        <v>827.5</v>
+        <v>844.4</v>
       </c>
       <c r="J32" s="12">
-        <v>844.4</v>
+        <v>831.3</v>
       </c>
       <c r="K32" s="12">
-        <v>831.3</v>
+        <v>841</v>
       </c>
       <c r="L32" s="12">
-        <v>841</v>
+        <v>836.9</v>
       </c>
       <c r="M32" s="12">
-        <v>836.9</v>
-      </c>
-      <c r="N32" s="12">
         <v>995.3</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="9">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>2018</v>
       </c>
+      <c r="B33" s="12">
+        <v>859</v>
+      </c>
       <c r="C33" s="12">
-        <v>859</v>
+        <v>850.4</v>
       </c>
       <c r="D33" s="12">
-        <v>850.4</v>
+        <v>926.8</v>
       </c>
       <c r="E33" s="12">
-        <v>926.8</v>
+        <v>921</v>
       </c>
       <c r="F33" s="12">
-        <v>921</v>
+        <v>943.9</v>
       </c>
       <c r="G33" s="12">
-        <v>943.9</v>
+        <v>953.7</v>
       </c>
       <c r="H33" s="12">
-        <v>953.7</v>
+        <v>973.8</v>
       </c>
       <c r="I33" s="12">
-        <v>973.8</v>
+        <v>987.5</v>
       </c>
       <c r="J33" s="12">
-        <v>987.5</v>
+        <v>963.6</v>
       </c>
       <c r="K33" s="12">
-        <v>963.6</v>
+        <v>999.7</v>
       </c>
       <c r="L33" s="12">
-        <v>999.7</v>
+        <v>994</v>
       </c>
       <c r="M33" s="12">
-        <v>994</v>
-      </c>
-      <c r="N33" s="12">
         <v>1115.3</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
         <v>2019</v>
       </c>
+      <c r="B34" s="14">
+        <v>981.6</v>
+      </c>
       <c r="C34" s="14">
-        <v>981.6</v>
+        <v>977.6</v>
       </c>
       <c r="D34" s="14">
-        <v>977.6</v>
+        <v>1056.9000000000001</v>
       </c>
       <c r="E34" s="14">
-        <v>1056.9000000000001</v>
+        <v>1073.7</v>
       </c>
       <c r="F34" s="14">
-        <v>1073.7</v>
+        <v>1071.5999999999999</v>
       </c>
       <c r="G34" s="14">
-        <v>1071.5999999999999</v>
+        <v>1080.5</v>
       </c>
       <c r="H34" s="14">
-        <v>1080.5</v>
+        <v>1128.5</v>
       </c>
       <c r="I34" s="14">
-        <v>1128.5</v>
+        <v>1117.8</v>
       </c>
       <c r="J34" s="14">
-        <v>1117.8</v>
+        <v>1108.5</v>
       </c>
       <c r="K34" s="14">
-        <v>1108.5</v>
+        <v>1123.4000000000001</v>
       </c>
       <c r="L34" s="14">
-        <v>1123.4000000000001</v>
+        <v>1113.0999999999999</v>
       </c>
       <c r="M34" s="14">
-        <v>1113.0999999999999</v>
-      </c>
-      <c r="N34" s="14"/>
-    </row>
-    <row r="35" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+        <v>1238.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -1961,12 +1964,12 @@
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>18</v>
       </c>
+      <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -1978,15 +1981,14 @@
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B36:N36"/>
-    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:M37"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="1.1023622047244095" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>